--- a/biology/Médecine/Pyrantel/Pyrantel.xlsx
+++ b/biology/Médecine/Pyrantel/Pyrantel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pyrantel est un antihelminthique, souvent prescrit dans le traitement et la prévention des infestations parasitaires chez les animaux. Il est actif sur[1]  : 
+Le pyrantel est un antihelminthique, souvent prescrit dans le traitement et la prévention des infestations parasitaires chez les animaux. Il est actif sur  : 
 les oxyures (Enterobius vermicularis)
 les ascaris (Ascaris lumbricoides)
 les ankylostomes (Ankylostoma duodenale et Necator americanus).
@@ -515,9 +527,11 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pyrantel est un agoniste des récepteurs nicotiniques[2],[3]. Il agit par blocage neuro-musculaire, suite à l'activation prolongée des récepteurs de l'acetylcholine (nACh) au niveau de la paroi musculaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pyrantel est un agoniste des récepteurs nicotiniques,. Il agit par blocage neuro-musculaire, suite à l'activation prolongée des récepteurs de l'acetylcholine (nACh) au niveau de la paroi musculaire.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pyrantel fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pyrantel fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
